--- a/MantraSutraInfo 2.xlsx
+++ b/MantraSutraInfo 2.xlsx
@@ -5006,7 +5006,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5016,6 +5016,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5082,7 +5088,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5172,7 +5178,8 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5482,7 +5489,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5493,7 +5500,7 @@
   <dimension ref="A1:B1387"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1280" workbookViewId="0">
-      <selection activeCell="D1297" sqref="D1297"/>
+      <selection activeCell="A1298" sqref="A1298:B1298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -15879,10 +15886,10 @@
       </c>
     </row>
     <row r="1298" spans="1:2">
-      <c r="A1298" s="11" t="s">
+      <c r="A1298" s="31" t="s">
         <v>1229</v>
       </c>
-      <c r="B1298" s="31"/>
+      <c r="B1298" s="32"/>
     </row>
     <row r="1299" spans="1:2">
       <c r="A1299" s="9" t="s">
